--- a/Disposable.xlsx
+++ b/Disposable.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -59,10 +59,79 @@
     <t>Dining Paper Roll</t>
   </si>
   <si>
-    <t>Disposable</t>
-  </si>
-  <si>
     <t>Q~~~QDisposableQ~~~QDining Paper Roll M1i1.jpg~~~~Q~~~QDisposableQ~~~QDining Paper Roll M1i2.jpg</t>
+  </si>
+  <si>
+    <t>Paper Plate No 8</t>
+  </si>
+  <si>
+    <t>Bubble Wrap</t>
+  </si>
+  <si>
+    <t>foil sheet hotel sheet</t>
+  </si>
+  <si>
+    <t>foil packet - small medium large</t>
+  </si>
+  <si>
+    <t>foil box small large</t>
+  </si>
+  <si>
+    <t>plastic boxes small medium large</t>
+  </si>
+  <si>
+    <t>foil roll</t>
+  </si>
+  <si>
+    <t>transperant roll</t>
+  </si>
+  <si>
+    <t>thonnai small</t>
+  </si>
+  <si>
+    <t>paper straw</t>
+  </si>
+  <si>
+    <t>paper plate small medium large</t>
+  </si>
+  <si>
+    <t>tissue paper regular</t>
+  </si>
+  <si>
+    <t>baby wipes</t>
+  </si>
+  <si>
+    <t>pink mudi urine sample box</t>
+  </si>
+  <si>
+    <t>big sample collection box</t>
+  </si>
+  <si>
+    <t>toilet roll</t>
+  </si>
+  <si>
+    <t>ice cream stick normal colour</t>
+  </si>
+  <si>
+    <t>spoon wood plastic</t>
+  </si>
+  <si>
+    <t>ziplock cover small box</t>
+  </si>
+  <si>
+    <t>big ziplock cover</t>
+  </si>
+  <si>
+    <t>zip lock cover small packed</t>
+  </si>
+  <si>
+    <t>kuppa cover big black cover</t>
+  </si>
+  <si>
+    <t>/Disposable/catering hair cap use and throw i2.jpg</t>
+  </si>
+  <si>
+    <t>catering hair cap use and throw</t>
   </si>
 </sst>
 </file>
@@ -75,7 +144,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +166,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -435,7 +510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -455,6 +530,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,144 +664,161 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1031,56 +1138,246 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="3" max="3" width="25.8888888888889" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+    <row r="2" ht="28.8" spans="1:7">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="7">
+        <v>73</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="43.2" spans="3:4">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4">
-        <v>73</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="3:4">
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="40.35" spans="3:4">
+      <c r="C5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="53.55" spans="3:4">
+      <c r="C6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="40.35" spans="3:4">
+      <c r="C7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" ht="66.75" spans="3:4">
+      <c r="C8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" ht="15.15" spans="3:4">
+      <c r="C9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="27.15" spans="3:4">
+      <c r="C10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" ht="27.15" spans="3:4">
+      <c r="C11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" ht="27.15" spans="3:4">
+      <c r="C12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" ht="15.15" spans="3:4">
+      <c r="C13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="40.35" spans="3:4">
+      <c r="C14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" ht="27.15" spans="3:4">
+      <c r="C15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" ht="53.55" spans="3:4">
+      <c r="C16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" ht="53.55" spans="3:4">
+      <c r="C17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" ht="15.15" spans="3:4">
+      <c r="C18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" ht="53.55" spans="3:4">
+      <c r="C19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" ht="40.35" spans="3:4">
+      <c r="C20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
